--- a/平台产品基线/打基线.xlsx
+++ b/平台产品基线/打基线.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元数据与代码" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="元数据与代码 (2)" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="107">
   <si>
     <t>编号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -137,10 +139,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #178 (2020-8-18 15:38:34)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-sy</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -149,10 +147,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #172 (2020-7-28 10:10:58)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>郭志恒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -173,18 +167,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #237 (2020-8-21 18:45:38)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-hse</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #225 (2020-8-25 13:51:17)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>刘冠宁</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -197,18 +183,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #185 (2020-8-24 9:35:02)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-cbs</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #184 (2020-8-18 17:15:24)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>张丰</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -225,18 +203,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #186 (2020-8-24 18:21:30)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-csc</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #185 (2020-8-25 10:08:16)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日期：2020-08-20 16:33</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -245,18 +215,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #178 (2020-8-10 16:31:12)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-insp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #177 (2020-8-10 16:37:03)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日期：2020-08-19 10:50</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -273,10 +235,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #201 (2020-8-10 16:37:22)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日期：2020-08-21 11:55</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -297,10 +255,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #187 (2020-8-10 16:30:51)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-hsm</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -325,10 +279,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #169 (2020-5-14 12:35:50)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日期：2020-08-21 10:35</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -337,22 +287,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #180 (2020-5-14 12:37:07)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #177 (2020-8-12 14:48:37)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-eam</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #173 (2020-8-25 16:04:56)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>manager</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -361,10 +299,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #171 (2020-7-28 9:42:21)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>rqreport</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -373,82 +307,42 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #174 (2020-7-28 9:43:14)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-passport</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #175 (2020-7-28 10:10:45)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>portal</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #174 (2020-7-28 9:43:27)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>build</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #168 (2020-4-24 10:18:04)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>msg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #171 (2020-5-14 12:27:57)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-msg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #171 (2020-7-28 10:11:11)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>wtask</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #170 (2020-5-14 12:28:42)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m-wtask</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #170 (2020-5-14 12:42:02)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>smart</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #177 (2020-7-20 15:50:45)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>kpi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #168 (2020-5-14 12:37:33)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> com.hayden.hap.fv.cloud_01.20.0825_yunTestLinux_release.apk </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -457,47 +351,103 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #181 (2020-8-26 9:34:26)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0.20.20200430</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #186 (2020-8-21 18:38:25)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #179 (2020-8-26 10:12:29)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0.20.20200430</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #177 (2020-8-26 10:21:47)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0.20.20200430</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #203 (2020-8-26 11:17:51)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #193 (2020-8-26 10:06:20)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日期：2020-08-26 11:45</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Build #223 (2020-8-26 15:01:01)</t>
+    <t>3.0.21.20200901</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>eam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0.21.20200901.STABLE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-代码版本-旧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-代码版本-新</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-代码版本-旧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-代码版本-新</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.hayden.hap.fv.cloud_01.20.0825_yunTestLinux_release.apk         Build #225 (2020-8-26 14:20:37)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端版本-旧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端版本-新 v3.0.21.20200901.STABLE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑京新</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.0.21.20200901</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码物理备份</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>子分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>code keeper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831相关，各模块有差异,详情见附表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,8 +630,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,6 +1176,39 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1265,15 +1272,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>322607</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503582</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>5200001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1291,8 +1298,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="2714625"/>
+          <a:off x="1419225" y="5019675"/>
           <a:ext cx="9942857" cy="5190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>75355</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5114288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="5029200"/>
+          <a:ext cx="6761905" cy="5095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,10 +1615,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,6 +1628,845 @@
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="G24:I24"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
@@ -1650,20 +2534,16 @@
         <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1674,32 +2554,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1710,32 +2586,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1746,32 +2618,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1782,32 +2650,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1818,32 +2682,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>119</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1854,32 +2714,28 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>116</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1890,32 +2746,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1926,32 +2778,28 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1962,23 +2810,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1992,23 +2838,21 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2022,26 +2866,24 @@
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -2053,14 +2895,12 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2075,14 +2915,12 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2097,23 +2935,19 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -2125,14 +2959,12 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -2147,14 +2979,12 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2169,23 +2999,19 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -2197,23 +3023,19 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>102</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -2225,14 +3047,12 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2247,14 +3067,12 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2268,7 +3086,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -2280,31 +3098,33 @@
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="C24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C23:L23"/>
+    <mergeCell ref="C24:L24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>